--- a/Deliverables/sprint-08/planning-documents.xlsx
+++ b/Deliverables/sprint-08/planning-documents.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="633">
   <si>
     <t>Project Name</t>
   </si>
@@ -1031,13 +1031,16 @@
     <t>Query Refactoring</t>
   </si>
   <si>
-    <t>Add Linting to CI/CD Pipeline</t>
-  </si>
-  <si>
     <t>Architecture (Diargram) Refactoring</t>
   </si>
   <si>
-    <t>View for Test Summary</t>
+    <t>Compound Queries</t>
+  </si>
+  <si>
+    <t>Leaf Queries: specialized/span queries</t>
+  </si>
+  <si>
+    <t>Expensive Queries</t>
   </si>
   <si>
     <t>Deliver Increment: Distributed load execution</t>
@@ -2926,8 +2929,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="273314141"/>
-        <c:axId val="660333525"/>
+        <c:axId val="1211119808"/>
+        <c:axId val="223367957"/>
       </c:barChart>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -2966,11 +2969,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="273314141"/>
-        <c:axId val="660333525"/>
+        <c:axId val="1211119808"/>
+        <c:axId val="223367957"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273314141"/>
+        <c:axId val="1211119808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,10 +3025,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660333525"/>
+        <c:crossAx val="223367957"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660333525"/>
+        <c:axId val="223367957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3103,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273314141"/>
+        <c:crossAx val="1211119808"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3221,8 +3224,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="727322734"/>
-        <c:axId val="250813228"/>
+        <c:axId val="596685486"/>
+        <c:axId val="382811252"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -3287,11 +3290,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="727322734"/>
-        <c:axId val="250813228"/>
+        <c:axId val="596685486"/>
+        <c:axId val="382811252"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="727322734"/>
+        <c:axId val="596685486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,10 +3346,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250813228"/>
+        <c:crossAx val="382811252"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250813228"/>
+        <c:axId val="382811252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727322734"/>
+        <c:crossAx val="596685486"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3575,11 +3578,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="236213830"/>
-        <c:axId val="1543481338"/>
+        <c:axId val="1474966907"/>
+        <c:axId val="1537396749"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236213830"/>
+        <c:axId val="1474966907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,10 +3634,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543481338"/>
+        <c:crossAx val="1537396749"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1543481338"/>
+        <c:axId val="1537396749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3712,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236213830"/>
+        <c:crossAx val="1474966907"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3863,11 +3866,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1444256783"/>
-        <c:axId val="1287176455"/>
+        <c:axId val="908788546"/>
+        <c:axId val="1844851019"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1444256783"/>
+        <c:axId val="908788546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,10 +3922,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287176455"/>
+        <c:crossAx val="1844851019"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1287176455"/>
+        <c:axId val="1844851019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +4000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1444256783"/>
+        <c:crossAx val="908788546"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4205,7 +4208,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G1033" displayName="Table_9" name="Table_9" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G1035" displayName="Table_9" name="Table_9" id="10">
   <tableColumns count="7">
     <tableColumn name="Sprint" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -5726,11 +5729,11 @@
       <c r="C5" s="86"/>
       <c r="D5" s="87">
         <f>sum(D8:D20)</f>
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E5" s="87">
         <f>D5</f>
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -5782,7 +5785,7 @@
       </c>
       <c r="E9" s="87">
         <f>$D$5</f>
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F9" s="87">
         <f>sum(F23:F32)</f>
@@ -5790,7 +5793,7 @@
       </c>
       <c r="G9" s="87">
         <f>$D$5</f>
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -5805,8 +5808,8 @@
         <v>26.0</v>
       </c>
       <c r="E10" s="105">
-        <f t="shared" ref="E10:E17" si="1">E9-D9</f>
-        <v>168</v>
+        <f t="shared" ref="E10:E16" si="1">E9-D9</f>
+        <v>154</v>
       </c>
       <c r="F10" s="95">
         <f>sum(F35:F39)</f>
@@ -5814,7 +5817,7 @@
       </c>
       <c r="G10" s="95">
         <f>G9-F9</f>
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -5830,7 +5833,7 @@
       </c>
       <c r="E11" s="105">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -5848,7 +5851,7 @@
       </c>
       <c r="E12" s="105">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F12" s="95"/>
       <c r="G12" s="95"/>
@@ -5866,7 +5869,7 @@
       </c>
       <c r="E13" s="105">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -5884,7 +5887,7 @@
       </c>
       <c r="E14" s="105">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
@@ -5902,7 +5905,7 @@
       </c>
       <c r="E15" s="105">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87"/>
@@ -5920,7 +5923,7 @@
       </c>
       <c r="E16" s="105">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F16" s="95"/>
       <c r="G16" s="95"/>
@@ -5929,13 +5932,8 @@
       <c r="A17" s="97"/>
       <c r="B17" s="93"/>
       <c r="C17" s="86"/>
-      <c r="D17" s="108">
-        <v>14.0</v>
-      </c>
-      <c r="E17" s="108">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="87"/>
       <c r="G17" s="87"/>
     </row>
@@ -5946,7 +5944,7 @@
       <c r="D18" s="80"/>
       <c r="E18" s="95">
         <f>E11-D11</f>
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="95">
@@ -6374,17 +6372,17 @@
       <c r="G51" s="80"/>
     </row>
     <row r="52">
-      <c r="A52" s="92"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="119" t="s">
+      <c r="A52" s="106"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="119">
-        <v>5.0</v>
-      </c>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
+      <c r="D52" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
     </row>
     <row r="53">
       <c r="A53" s="106"/>
@@ -6393,7 +6391,7 @@
         <v>325</v>
       </c>
       <c r="D53" s="122">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E53" s="80"/>
       <c r="F53" s="80"/>
@@ -6415,21 +6413,21 @@
     <row r="55">
       <c r="A55" s="106"/>
       <c r="B55" s="80"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
+      <c r="C55" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="D55" s="122">
+        <v>5.0</v>
+      </c>
       <c r="E55" s="80"/>
       <c r="F55" s="80"/>
       <c r="G55" s="80"/>
     </row>
     <row r="56">
-      <c r="A56" s="124">
-        <v>10.0</v>
-      </c>
-      <c r="B56" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="86"/>
       <c r="F56" s="86"/>
       <c r="G56" s="86"/>
@@ -6437,25 +6435,21 @@
     <row r="57">
       <c r="A57" s="106"/>
       <c r="B57" s="80"/>
-      <c r="C57" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="D57" s="122">
-        <v>5.0</v>
-      </c>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="80"/>
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
     <row r="58">
-      <c r="A58" s="92"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="D58" s="119">
-        <v>3.0</v>
-      </c>
+      <c r="A58" s="124">
+        <v>10.0</v>
+      </c>
+      <c r="B58" s="123" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="86"/>
       <c r="F58" s="86"/>
       <c r="G58" s="86"/>
@@ -6464,10 +6458,10 @@
       <c r="A59" s="106"/>
       <c r="B59" s="80"/>
       <c r="C59" s="122" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D59" s="122">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="80"/>
@@ -6477,10 +6471,10 @@
       <c r="A60" s="92"/>
       <c r="B60" s="86"/>
       <c r="C60" s="119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D60" s="119">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E60" s="86"/>
       <c r="F60" s="86"/>
@@ -6490,7 +6484,7 @@
       <c r="A61" s="106"/>
       <c r="B61" s="80"/>
       <c r="C61" s="122" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D61" s="122">
         <v>3.0</v>
@@ -6502,8 +6496,12 @@
     <row r="62">
       <c r="A62" s="92"/>
       <c r="B62" s="86"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="C62" s="119" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="119">
+        <v>5.0</v>
+      </c>
       <c r="E62" s="86"/>
       <c r="F62" s="86"/>
       <c r="G62" s="86"/>
@@ -6511,21 +6509,21 @@
     <row r="63">
       <c r="A63" s="106"/>
       <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
+      <c r="C63" s="122" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="122">
+        <v>3.0</v>
+      </c>
       <c r="E63" s="80"/>
       <c r="F63" s="80"/>
       <c r="G63" s="80"/>
     </row>
     <row r="64">
-      <c r="A64" s="124">
-        <v>11.0</v>
-      </c>
-      <c r="B64" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="86"/>
       <c r="F64" s="86"/>
       <c r="G64" s="86"/>
@@ -6533,25 +6531,21 @@
     <row r="65">
       <c r="A65" s="106"/>
       <c r="B65" s="80"/>
-      <c r="C65" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="D65" s="122">
-        <v>5.0</v>
-      </c>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
       <c r="E65" s="80"/>
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
     <row r="66">
-      <c r="A66" s="92"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="D66" s="119">
-        <v>5.0</v>
-      </c>
+      <c r="A66" s="124">
+        <v>11.0</v>
+      </c>
+      <c r="B66" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
       <c r="E66" s="86"/>
       <c r="F66" s="86"/>
       <c r="G66" s="86"/>
@@ -6560,10 +6554,10 @@
       <c r="A67" s="106"/>
       <c r="B67" s="80"/>
       <c r="C67" s="122" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D67" s="122">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E67" s="80"/>
       <c r="F67" s="80"/>
@@ -6573,10 +6567,10 @@
       <c r="A68" s="92"/>
       <c r="B68" s="86"/>
       <c r="C68" s="119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D68" s="119">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E68" s="86"/>
       <c r="F68" s="86"/>
@@ -6586,7 +6580,7 @@
       <c r="A69" s="106"/>
       <c r="B69" s="80"/>
       <c r="C69" s="122" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D69" s="122">
         <v>3.0</v>
@@ -6598,8 +6592,12 @@
     <row r="70">
       <c r="A70" s="92"/>
       <c r="B70" s="86"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="119"/>
+      <c r="C70" s="119" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="119">
+        <v>3.0</v>
+      </c>
       <c r="E70" s="86"/>
       <c r="F70" s="86"/>
       <c r="G70" s="86"/>
@@ -6607,21 +6605,21 @@
     <row r="71">
       <c r="A71" s="106"/>
       <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
+      <c r="C71" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="122">
+        <v>3.0</v>
+      </c>
       <c r="E71" s="80"/>
       <c r="F71" s="80"/>
       <c r="G71" s="80"/>
     </row>
     <row r="72">
-      <c r="A72" s="124">
-        <v>12.0</v>
-      </c>
-      <c r="B72" s="123" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="119"/>
+      <c r="D72" s="119"/>
       <c r="E72" s="86"/>
       <c r="F72" s="86"/>
       <c r="G72" s="86"/>
@@ -6629,25 +6627,21 @@
     <row r="73">
       <c r="A73" s="106"/>
       <c r="B73" s="80"/>
-      <c r="C73" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="D73" s="118">
-        <v>3.0</v>
-      </c>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="80"/>
       <c r="F73" s="80"/>
       <c r="G73" s="80"/>
     </row>
     <row r="74">
-      <c r="A74" s="92"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" s="119">
-        <v>5.0</v>
-      </c>
+      <c r="A74" s="124">
+        <v>12.0</v>
+      </c>
+      <c r="B74" s="123" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="86"/>
       <c r="F74" s="86"/>
       <c r="G74" s="86"/>
@@ -6656,7 +6650,7 @@
       <c r="A75" s="106"/>
       <c r="B75" s="80"/>
       <c r="C75" s="118" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D75" s="118">
         <v>3.0</v>
@@ -6669,10 +6663,10 @@
       <c r="A76" s="92"/>
       <c r="B76" s="86"/>
       <c r="C76" s="119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D76" s="119">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E76" s="86"/>
       <c r="F76" s="86"/>
@@ -6682,10 +6676,10 @@
       <c r="A77" s="106"/>
       <c r="B77" s="80"/>
       <c r="C77" s="118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D77" s="118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E77" s="80"/>
       <c r="F77" s="80"/>
@@ -6695,10 +6689,10 @@
       <c r="A78" s="92"/>
       <c r="B78" s="86"/>
       <c r="C78" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D78" s="119">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E78" s="86"/>
       <c r="F78" s="86"/>
@@ -6707,21 +6701,25 @@
     <row r="79">
       <c r="A79" s="106"/>
       <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
+      <c r="C79" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D79" s="118">
+        <v>2.0</v>
+      </c>
       <c r="E79" s="80"/>
       <c r="F79" s="80"/>
       <c r="G79" s="80"/>
     </row>
     <row r="80">
-      <c r="A80" s="124">
-        <v>13.0</v>
-      </c>
-      <c r="B80" s="123" t="s">
+      <c r="A80" s="92"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
+      <c r="D80" s="119">
+        <v>2.0</v>
+      </c>
       <c r="E80" s="86"/>
       <c r="F80" s="86"/>
       <c r="G80" s="86"/>
@@ -6729,25 +6727,21 @@
     <row r="81">
       <c r="A81" s="106"/>
       <c r="B81" s="80"/>
-      <c r="C81" s="118" t="s">
-        <v>347</v>
-      </c>
-      <c r="D81" s="118">
-        <v>5.0</v>
-      </c>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
       <c r="E81" s="80"/>
       <c r="F81" s="80"/>
       <c r="G81" s="80"/>
     </row>
     <row r="82">
-      <c r="A82" s="92"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="119" t="s">
-        <v>348</v>
-      </c>
-      <c r="D82" s="119">
-        <v>3.0</v>
-      </c>
+      <c r="A82" s="124">
+        <v>13.0</v>
+      </c>
+      <c r="B82" s="123" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
       <c r="E82" s="86"/>
       <c r="F82" s="86"/>
       <c r="G82" s="86"/>
@@ -6756,10 +6750,10 @@
       <c r="A83" s="106"/>
       <c r="B83" s="80"/>
       <c r="C83" s="118" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D83" s="118">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
@@ -6769,10 +6763,10 @@
       <c r="A84" s="92"/>
       <c r="B84" s="86"/>
       <c r="C84" s="119" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D84" s="119">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E84" s="86"/>
       <c r="F84" s="86"/>
@@ -6782,10 +6776,10 @@
       <c r="A85" s="106"/>
       <c r="B85" s="80"/>
       <c r="C85" s="118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D85" s="118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E85" s="80"/>
       <c r="F85" s="80"/>
@@ -6794,8 +6788,12 @@
     <row r="86">
       <c r="A86" s="92"/>
       <c r="B86" s="86"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="119"/>
+      <c r="C86" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" s="119">
+        <v>5.0</v>
+      </c>
       <c r="E86" s="86"/>
       <c r="F86" s="86"/>
       <c r="G86" s="86"/>
@@ -6803,56 +6801,52 @@
     <row r="87">
       <c r="A87" s="106"/>
       <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="118" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" s="118">
+        <v>2.0</v>
+      </c>
       <c r="E87" s="80"/>
       <c r="F87" s="80"/>
       <c r="G87" s="80"/>
     </row>
     <row r="88">
-      <c r="A88" s="124">
-        <v>14.0</v>
-      </c>
-      <c r="B88" s="93" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
+      <c r="A88" s="92"/>
+      <c r="B88" s="86"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="119"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
     </row>
     <row r="89">
       <c r="A89" s="106"/>
       <c r="B89" s="80"/>
-      <c r="C89" s="122" t="s">
-        <v>353</v>
-      </c>
-      <c r="D89" s="122">
-        <v>3.0</v>
-      </c>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
       <c r="E89" s="80"/>
       <c r="F89" s="80"/>
       <c r="G89" s="80"/>
     </row>
     <row r="90">
-      <c r="A90" s="92"/>
-      <c r="B90" s="86"/>
-      <c r="C90" s="119" t="s">
-        <v>354</v>
-      </c>
-      <c r="D90" s="119">
-        <v>5.0</v>
-      </c>
-      <c r="E90" s="86"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
+      <c r="A90" s="124">
+        <v>14.0</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="125"/>
+      <c r="G90" s="125"/>
     </row>
     <row r="91">
       <c r="A91" s="106"/>
       <c r="B91" s="80"/>
       <c r="C91" s="122" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D91" s="122">
         <v>3.0</v>
@@ -6865,7 +6859,7 @@
       <c r="A92" s="92"/>
       <c r="B92" s="86"/>
       <c r="C92" s="119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D92" s="119">
         <v>5.0</v>
@@ -6878,10 +6872,10 @@
       <c r="A93" s="106"/>
       <c r="B93" s="80"/>
       <c r="C93" s="122" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D93" s="122">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E93" s="80"/>
       <c r="F93" s="80"/>
@@ -6890,8 +6884,12 @@
     <row r="94">
       <c r="A94" s="92"/>
       <c r="B94" s="86"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="86"/>
+      <c r="C94" s="119" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="119">
+        <v>5.0</v>
+      </c>
       <c r="E94" s="86"/>
       <c r="F94" s="86"/>
       <c r="G94" s="86"/>
@@ -6899,20 +6897,24 @@
     <row r="95">
       <c r="A95" s="106"/>
       <c r="B95" s="80"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="80"/>
+      <c r="C95" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95" s="122">
+        <v>5.0</v>
+      </c>
       <c r="E95" s="80"/>
       <c r="F95" s="80"/>
       <c r="G95" s="80"/>
     </row>
     <row r="96">
-      <c r="A96" s="106"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
     </row>
     <row r="97">
       <c r="A97" s="106"/>
@@ -15346,6 +15348,24 @@
       <c r="E1033" s="80"/>
       <c r="F1033" s="80"/>
       <c r="G1033" s="80"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="106"/>
+      <c r="B1034" s="80"/>
+      <c r="C1034" s="80"/>
+      <c r="D1034" s="80"/>
+      <c r="E1034" s="80"/>
+      <c r="F1034" s="80"/>
+      <c r="G1034" s="80"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="106"/>
+      <c r="B1035" s="80"/>
+      <c r="C1035" s="80"/>
+      <c r="D1035" s="80"/>
+      <c r="E1035" s="80"/>
+      <c r="F1035" s="80"/>
+      <c r="G1035" s="80"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -15375,7 +15395,7 @@
   <sheetData>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B23" s="68">
         <f>'Velocity Tracking'!C2</f>
@@ -15417,125 +15437,125 @@
         <v>57</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="128" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D2" s="131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="133" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="133" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="133" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D8" s="133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C9" s="133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10">
@@ -15631,18 +15651,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
@@ -15754,16 +15774,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>64</v>
@@ -15774,19 +15794,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D2" s="138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F2" s="138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
@@ -15794,19 +15814,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E3" s="139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F3" s="138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
@@ -15814,19 +15834,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D4" s="138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5">
@@ -15834,19 +15854,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D5" s="141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
@@ -15854,19 +15874,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" s="141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D6" s="141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E6" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
@@ -15874,19 +15894,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D7" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8">
@@ -15894,19 +15914,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C8" s="141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E8" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F8" s="141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9">
@@ -15914,19 +15934,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" s="141" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E9" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10">
@@ -15934,19 +15954,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D10" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E10" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F10" s="141" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
@@ -15954,19 +15974,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D11" s="141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E11" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12">
@@ -15974,19 +15994,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C12" s="141" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D12" s="141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E12" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F12" s="141" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13">
@@ -15994,19 +16014,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D13" s="141" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E13" s="141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F13" s="141" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14">
@@ -16014,19 +16034,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C14" s="141" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E14" s="141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F14" s="141" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15">
@@ -16034,19 +16054,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E15" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F15" s="141" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
@@ -16054,19 +16074,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C16" s="141" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E16" s="141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F16" s="141" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
@@ -16074,19 +16094,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C17" s="141" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E17" s="141" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F17" s="141" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
@@ -16094,19 +16114,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C18" s="141" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E18" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19">
@@ -16114,19 +16134,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E19" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F19" s="141" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20">
@@ -16134,19 +16154,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C20" s="141" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D20" s="140">
         <v>2.4</v>
       </c>
       <c r="E20" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F20" s="141" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
@@ -16154,19 +16174,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" s="141" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D21" s="141" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F21" s="141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22">
@@ -16174,19 +16194,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C22" s="141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D22" s="141" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E22" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F22" s="141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23">
@@ -16194,19 +16214,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C23" s="141" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D23" s="141" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E23" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F23" s="141" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24">
@@ -16214,19 +16234,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D24" s="141" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E24" s="141" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F24" s="141" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25">
@@ -16234,19 +16254,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C25" s="141" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D25" s="141" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E25" s="141" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F25" s="141" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26">
@@ -16254,19 +16274,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C26" s="141" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D26" s="141" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E26" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27">
@@ -16274,19 +16294,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C27" s="141" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E27" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F27" s="141" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28">
@@ -16294,19 +16314,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C28" s="141" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D28" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E28" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F28" s="141" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29">
@@ -16314,19 +16334,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C29" s="141" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D29" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E29" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F29" s="141" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30">
@@ -16334,19 +16354,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C30" s="141" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D30" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E30" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F30" s="141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31">
@@ -16354,19 +16374,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C31" s="141" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D31" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E31" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F31" s="141" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32">
@@ -16374,19 +16394,19 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C32" s="141" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D32" s="141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E32" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F32" s="141" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
@@ -16394,19 +16414,19 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C33" s="141" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D33" s="141" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E33" s="141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F33" s="141" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34">
@@ -16414,19 +16434,19 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C34" s="141" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D34" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E34" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F34" s="141" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35">
@@ -16434,19 +16454,19 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C35" s="141" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D35" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E35" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F35" s="141" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36">
@@ -16454,19 +16474,19 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" s="141" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D36" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E36" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F36" s="141" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37">
@@ -16474,19 +16494,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C37" s="141" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D37" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E37" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F37" s="141" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38">
@@ -16494,19 +16514,19 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C38" s="141" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D38" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E38" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F38" s="141" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39">
@@ -16514,19 +16534,19 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D39" s="141" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E39" s="141" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F39" s="141" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40">
@@ -16534,19 +16554,19 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C40" s="141" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D40" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E40" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F40" s="141" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41">
@@ -16554,19 +16574,19 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C41" s="141" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D41" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E41" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F41" s="141" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42">
@@ -16574,19 +16594,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C42" s="141" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D42" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E42" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F42" s="141" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43">
@@ -16594,19 +16614,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C43" s="141" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D43" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E43" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F43" s="141" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44">
@@ -16614,19 +16634,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C44" s="141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D44" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E44" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F44" s="141" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45">
@@ -16634,19 +16654,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C45" s="141" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D45" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E45" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F45" s="141" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46">
@@ -16654,19 +16674,19 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C46" s="141" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D46" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E46" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F46" s="141" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47">
@@ -16674,19 +16694,19 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C47" s="141" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D47" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E47" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F47" s="141" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48">
@@ -16694,19 +16714,19 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D48" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E48" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F48" s="141" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49">
@@ -16714,19 +16734,19 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C49" s="141" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D49" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E49" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F49" s="141" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50">
@@ -16734,19 +16754,19 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D50" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E50" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F50" s="141" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51">
@@ -16754,19 +16774,19 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C51" s="141" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D51" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E51" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F51" s="141" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52">
@@ -16774,19 +16794,19 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C52" s="141" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D52" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E52" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F52" s="141" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53">
@@ -16794,19 +16814,19 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D53" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E53" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F53" s="141" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54">
@@ -16814,19 +16834,19 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" s="141" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D54" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E54" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F54" s="141" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55">
@@ -16834,19 +16854,19 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" s="141" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D55" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E55" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F55" s="141" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56">
@@ -16854,19 +16874,19 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D56" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E56" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F56" s="141" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57">
@@ -16874,19 +16894,19 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D57" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E57" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F57" s="141" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58">
@@ -16894,19 +16914,19 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D58" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E58" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F58" s="141" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59">
@@ -16914,19 +16934,19 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C59" s="141" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D59" s="141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E59" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F59" s="141" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
@@ -16934,19 +16954,19 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D60" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E60" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F60" s="141" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61">
@@ -16954,19 +16974,19 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D61" s="141" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E61" s="141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F61" s="141" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62">
@@ -16974,19 +16994,19 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D62" s="141" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E62" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F62" s="141" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63">
@@ -16994,19 +17014,19 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C63" s="141" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D63" s="140">
         <v>3.2</v>
       </c>
       <c r="E63" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F63" s="141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64">
@@ -17014,19 +17034,19 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D64" s="141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E64" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F64" s="141" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65">
@@ -17034,19 +17054,19 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D65" s="141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E65" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F65" s="141" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
@@ -17054,19 +17074,19 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C66" s="141" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D66" s="141" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E66" s="141" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F66" s="141" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67">
@@ -17074,19 +17094,19 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C67" s="141" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D67" s="141" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E67" s="141" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F67" s="141" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68">
@@ -17094,19 +17114,19 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C68" s="141" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D68" s="141" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E68" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F68" s="141" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69">
@@ -17114,19 +17134,19 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C69" s="141" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D69" s="141" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E69" s="141" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F69" s="141" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70">
@@ -17134,19 +17154,19 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C70" s="141" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D70" s="141" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E70" s="141" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F70" s="141" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71">
@@ -17154,19 +17174,19 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C71" s="141" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D71" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E71" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F71" s="141" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72">
@@ -17174,19 +17194,19 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C72" s="141" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D72" s="141" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E72" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F72" s="141" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73">
@@ -17194,19 +17214,19 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D73" s="141" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E73" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F73" s="141" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74">
@@ -17214,19 +17234,19 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C74" s="141" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D74" s="141" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E74" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F74" s="141" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75">
@@ -17234,19 +17254,19 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C75" s="141" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D75" s="141" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E75" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F75" s="141" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76">
@@ -17254,19 +17274,19 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C76" s="141" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D76" s="141" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E76" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F76" s="141" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77">
@@ -17274,19 +17294,19 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C77" s="141" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D77" s="140">
         <v>1.2</v>
       </c>
       <c r="E77" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F77" s="141" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78">
@@ -17294,19 +17314,19 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C78" s="141" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D78" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E78" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F78" s="141" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="79">
@@ -17314,19 +17334,19 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C79" s="141" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D79" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E79" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F79" s="141" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80">
@@ -17334,19 +17354,19 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C80" s="141" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D80" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E80" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F80" s="141" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81">
@@ -17354,19 +17374,19 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C81" s="141" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D81" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E81" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F81" s="141" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82">
@@ -17374,19 +17394,19 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C82" s="141" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D82" s="141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F82" s="141" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83">
@@ -17394,19 +17414,19 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C83" s="141" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D83" s="141" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E83" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F83" s="141" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84">
@@ -17414,19 +17434,19 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C84" s="141" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D84" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E84" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F84" s="141" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85">
@@ -17434,19 +17454,19 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C85" s="141" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D85" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E85" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F85" s="141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86">
@@ -17454,19 +17474,19 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C86" s="141" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D86" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E86" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F86" s="141" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87">
@@ -17474,19 +17494,19 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C87" s="141" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D87" s="141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E87" s="141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F87" s="141" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88">
@@ -17494,19 +17514,19 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C88" s="141" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D88" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E88" s="141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F88" s="141" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -17545,7 +17565,7 @@
         <v>First Name</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D1" s="144"/>
       <c r="E1" s="145"/>
@@ -17638,7 +17658,7 @@
         <v>0.0</v>
       </c>
       <c r="F6" s="162" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G6" s="153"/>
       <c r="H6" s="153"/>
@@ -17658,7 +17678,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G7" s="156"/>
       <c r="H7" s="156"/>
@@ -17678,7 +17698,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="162" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="153"/>
@@ -17698,7 +17718,7 @@
         <v>3.0</v>
       </c>
       <c r="F9" s="162" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G9" s="156"/>
       <c r="H9" s="156"/>
@@ -17718,7 +17738,7 @@
         <v>5.0</v>
       </c>
       <c r="F10" s="162" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G10" s="153"/>
       <c r="H10" s="153"/>
@@ -17732,7 +17752,7 @@
         <v>8.0</v>
       </c>
       <c r="F11" s="162" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G11" s="156"/>
       <c r="H11" s="156"/>
@@ -17746,7 +17766,7 @@
         <v>13.0</v>
       </c>
       <c r="F12" s="162" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G12" s="153"/>
       <c r="H12" s="153"/>
@@ -17763,7 +17783,7 @@
     </row>
     <row r="14">
       <c r="A14" s="163" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B14" s="164"/>
       <c r="C14" s="164"/>
@@ -17785,7 +17805,7 @@
     </row>
     <row r="16">
       <c r="A16" s="166" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B16" s="167"/>
       <c r="C16" s="167"/>
@@ -17797,7 +17817,7 @@
     </row>
     <row r="17">
       <c r="A17" s="168" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
@@ -17809,7 +17829,7 @@
     </row>
     <row r="18">
       <c r="A18" s="166" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B18" s="167"/>
       <c r="C18" s="167"/>
@@ -19807,7 +19827,7 @@
       </c>
       <c r="D32" s="73">
         <f>AVERAGE(B32:B46)</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E32" s="73">
         <f>AVERAGE(C32:C48)</f>
@@ -19828,7 +19848,7 @@
       </c>
       <c r="D33" s="73">
         <f t="shared" ref="D33:E33" si="1">D32</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E33" s="73">
         <f t="shared" si="1"/>
@@ -19849,7 +19869,7 @@
       </c>
       <c r="D34" s="73">
         <f t="shared" ref="D34:E34" si="2">D33</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E34" s="73">
         <f t="shared" si="2"/>
@@ -19870,7 +19890,7 @@
       </c>
       <c r="D35" s="73">
         <f t="shared" ref="D35:E35" si="3">D34</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="3"/>
@@ -19891,7 +19911,7 @@
       </c>
       <c r="D36" s="73">
         <f t="shared" ref="D36:E36" si="4">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E36" s="73">
         <f t="shared" si="4"/>
@@ -19912,7 +19932,7 @@
       </c>
       <c r="D37" s="73">
         <f t="shared" ref="D37:E37" si="5">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E37" s="73">
         <f t="shared" si="5"/>
@@ -19933,7 +19953,7 @@
       </c>
       <c r="D38" s="73">
         <f t="shared" ref="D38:E38" si="6">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E38" s="73">
         <f t="shared" si="6"/>
@@ -19954,7 +19974,7 @@
       </c>
       <c r="D39" s="73">
         <f t="shared" ref="D39:E39" si="7">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E39" s="73">
         <f t="shared" si="7"/>
@@ -19975,7 +19995,7 @@
       </c>
       <c r="D40" s="73">
         <f t="shared" ref="D40:E40" si="8">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E40" s="73">
         <f t="shared" si="8"/>
@@ -19996,7 +20016,7 @@
       </c>
       <c r="D41" s="73">
         <f t="shared" ref="D41:E41" si="9">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E41" s="73">
         <f t="shared" si="9"/>
@@ -20017,7 +20037,7 @@
       </c>
       <c r="D42" s="73">
         <f t="shared" ref="D42:E42" si="10">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E42" s="73">
         <f t="shared" si="10"/>
@@ -20038,7 +20058,7 @@
       </c>
       <c r="D43" s="73">
         <f t="shared" ref="D43:E43" si="11">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E43" s="73">
         <f t="shared" si="11"/>
@@ -20059,7 +20079,7 @@
       </c>
       <c r="D44" s="73">
         <f t="shared" ref="D44:E44" si="12">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E44" s="73">
         <f t="shared" si="12"/>
@@ -20080,7 +20100,7 @@
       </c>
       <c r="D45" s="73">
         <f t="shared" ref="D45:E45" si="13">D35</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E45" s="73">
         <f t="shared" si="13"/>
@@ -20091,9 +20111,9 @@
       <c r="A46" s="72">
         <v>15.0</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="72" t="str">
         <f>'Final Project Release plan'!D17</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="C46" s="73" t="str">
         <f>'Final Project Release plan'!F17</f>
@@ -20101,7 +20121,7 @@
       </c>
       <c r="D46" s="73">
         <f t="shared" ref="D46:E46" si="14">D36</f>
-        <v>20.6</v>
+        <v>21.07142857</v>
       </c>
       <c r="E46" s="73">
         <f t="shared" si="14"/>
